--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3056.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3056.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2382094165551955</v>
+        <v>1.726732730865479</v>
       </c>
       <c r="B1">
-        <v>0.3389533307662224</v>
+        <v>3.525825500488281</v>
       </c>
       <c r="C1">
-        <v>0.6432188113398893</v>
+        <v>6.394368648529053</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.696390628814697</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>0.8720933794975281</v>
       </c>
     </row>
   </sheetData>
